--- a/Excel/DemoExcelConfig.Demo2.xlsx
+++ b/Excel/DemoExcelConfig.Demo2.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12611"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>#这一列上方以#开始,表示这一列忽略掉</t>
   </si>
@@ -140,9 +153,6 @@
   </si>
   <si>
     <t>也可以输入数字,但是会被当成字符串用</t>
-  </si>
-  <si>
-    <t>只有一个也可以不加冒号</t>
   </si>
   <si>
     <t>测试说明5</t>
@@ -334,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -363,34 +373,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -404,14 +386,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,6 +425,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,7 +490,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,49 +538,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,121 +676,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,21 +857,6 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,6 +890,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,148 +961,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1144,52 +1154,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1504,30 +1514,30 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.8055555555556" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.1759259259259" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.4351851851852" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.0277777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1296296296296" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5462962962963" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.8083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.175" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.4333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.025" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.55" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.3425925925926" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.4259259259259" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.037037037037" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.425" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.0333333333333" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="45.75" spans="5:5">
+    <row r="2" ht="50.25" spans="5:5">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="78.75" spans="2:10">
+    <row r="3" ht="83.25" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:10">
+    <row r="4" spans="2:10">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1583,7 +1593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="135.75" spans="2:10">
+    <row r="5" ht="99.75" spans="2:10">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1610,12 +1620,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="2:2">
+    <row r="6" ht="17.25" spans="2:2">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="60" spans="2:11">
+    <row r="7" s="1" customFormat="1" ht="49.5" spans="2:11">
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>1</v>
@@ -1643,7 +1653,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" ht="45" spans="3:9">
+    <row r="8" ht="33" spans="3:9">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -1666,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="3:9">
+    <row r="9" ht="33" spans="3:9">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="3:9">
+    <row r="10" ht="33" spans="3:9">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -1705,14 +1715,12 @@
       <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="45" spans="3:9">
+    <row r="11" ht="33" spans="3:9">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1720,32 +1728,32 @@
         <v>5.01</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="33" spans="2:9">
+      <c r="B12" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="2:9">
-      <c r="B12" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="1"/>
@@ -1757,10 +1765,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="1"/>
@@ -1774,10 +1782,10 @@
         <v>8.01</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="1"/>
@@ -1791,10 +1799,10 @@
         <v>9.01</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="1"/>
@@ -1808,10 +1816,10 @@
         <v>10.01</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="1"/>
@@ -1825,10 +1833,10 @@
         <v>11.01</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="1"/>
@@ -1842,10 +1850,10 @@
         <v>12.01</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="1"/>
@@ -1859,10 +1867,10 @@
         <v>13.01</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1"/>
@@ -1876,10 +1884,10 @@
         <v>14.01</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="1"/>
@@ -1893,10 +1901,10 @@
         <v>15.01</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="1"/>
@@ -1910,10 +1918,10 @@
         <v>16.01</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="1"/>
@@ -1927,10 +1935,10 @@
         <v>17.01</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="1"/>
@@ -1944,10 +1952,10 @@
         <v>18.01</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="1"/>
@@ -1955,17 +1963,17 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>19</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -1976,10 +1984,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:6">
@@ -1990,10 +1998,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="3:6">
@@ -2004,10 +2012,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="3:6">
@@ -2018,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -2032,10 +2040,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="3:6">
@@ -2046,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="3:6">
@@ -2060,10 +2068,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -2074,10 +2082,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="3:6">
@@ -2088,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -2102,10 +2110,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -2116,10 +2124,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -2130,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -2144,10 +2152,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="3:6">
@@ -2158,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="3:7">
